--- a/DATA_goal/Junction_Flooding_500.xlsx
+++ b/DATA_goal/Junction_Flooding_500.xlsx
@@ -444,11 +444,11 @@
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
     <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
@@ -463,9 +463,9 @@
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
@@ -473,7 +473,7 @@
     <col width="6" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44831.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.61</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.12</v>
+        <v>1.19</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.56</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>1.24</v>
+        <v>12.37</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.79</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.48</v>
+        <v>14.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.9</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.43</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.62</v>
+        <v>6.25</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.28</v>
+        <v>2.79</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.6</v>
+        <v>6.02</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.77</v>
+        <v>7.74</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>8.41</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>1.64</v>
+        <v>16.42</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.55</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>1.02</v>
+        <v>10.17</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.63</v>
+        <v>6.28</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.74</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.36</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>4.88</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.61</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.52</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>1.32</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.64</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44831.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.93</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.26</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.63</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>1.53</v>
+        <v>15.31</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.13</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.49</v>
+        <v>4.91</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.15</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.85</v>
+        <v>8.5</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.25</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.54</v>
+        <v>5.39</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.61</v>
+        <v>6.09</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.68</v>
+        <v>6.83</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.34</v>
       </c>
       <c r="O3" s="4" t="n">
+        <v>5.64</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>7.59</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>4.87</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>0.5600000000000001</v>
       </c>
-      <c r="P3" s="4" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>7.85</v>
+        <v>78.5</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.58</v>
+        <v>15.78</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.21</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>1.02</v>
+        <v>10.16</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.83</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>1.13</v>
+        <v>11.31</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.43</v>
+        <v>4.3</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.44</v>
+        <v>4.44</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.53</v>
+        <v>5.3</v>
       </c>
       <c r="AD3" s="4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE3" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="AE3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="AF3" s="4" t="n">
-        <v>1.88</v>
+        <v>18.83</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.32</v>
+        <v>3.24</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44831.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.39</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.72</v>
+        <v>7.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>1.43</v>
+        <v>14.33</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.65</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.13</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.65</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.41</v>
+        <v>4.13</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.47</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.34</v>
+        <v>3.38</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.52</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.3</v>
+        <v>2.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.36</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>4.42</v>
+        <v>44.19</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.96</v>
+        <v>9.57</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.12</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.35</v>
+        <v>3.55</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.77</v>
+        <v>7.72</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.55</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.27</v>
+        <v>2.73</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.32</v>
+        <v>3.23</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.43</v>
+        <v>4.27</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.35</v>
+        <v>13.54</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.98</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44831.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.78</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.36</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.65</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>3.02</v>
+        <v>30.19</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>2.46</v>
+        <v>24.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.05</v>
+        <v>10.54</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>3.88</v>
+        <v>38.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.67</v>
+        <v>16.73</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.78</v>
+        <v>7.8</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.99</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>1.21</v>
+        <v>12.08</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>1.3</v>
+        <v>12.98</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.79</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>1.09</v>
+        <v>10.9</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>1.53</v>
+        <v>15.3</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.18</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.16</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.58</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>15.86</v>
+        <v>158.61</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>3.04</v>
+        <v>30.37</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>2.03</v>
+        <v>20.28</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.14</v>
+        <v>1.44</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>2</v>
+        <v>19.95</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.73</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.8</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.95</v>
+        <v>9.48</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.34</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.53</v>
+        <v>35.29</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.89</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.24</v>
+        <v>12.42</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_500.xlsx
+++ b/DATA_goal/Junction_Flooding_500.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44831.54861111111</v>
+        <v>45181.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.2</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.61</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.19</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.37</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.79</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.8</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.960000000000001</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.43</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.63</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.25</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.31</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.79</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.02</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.74</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.14</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.49</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.93</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.42</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.55</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.17</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.28</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.89</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.74</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.36</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.88</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.52</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.63</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.39</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44831.55555555555</v>
+        <v>45181.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.93</v>
+        <v>12.971</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.26</v>
+        <v>9.032</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.63</v>
+        <v>1.695</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.31</v>
+        <v>27.971</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.13</v>
+        <v>22.532</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.91</v>
+        <v>10.208</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.15</v>
+        <v>40.423</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.5</v>
+        <v>15.707</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.25</v>
+        <v>6.724</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.39</v>
+        <v>9.909000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.09</v>
+        <v>11.183</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.83</v>
+        <v>11.647</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.34</v>
+        <v>3.262</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.64</v>
+        <v>10.151</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.59</v>
+        <v>14.263</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.87</v>
+        <v>8.82</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.21</v>
+        <v>1.526</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.963</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.5</v>
+        <v>147.193</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.78</v>
+        <v>28.454</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.21</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.16</v>
+        <v>18.788</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.83</v>
+        <v>9.728</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.77</v>
+        <v>1.908</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.31</v>
+        <v>19.494</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.3</v>
+        <v>8.276</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.44</v>
+        <v>7.538</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.3</v>
+        <v>8.83</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.1</v>
+        <v>11.56</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.83</v>
+        <v>36.84</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.24</v>
+        <v>5.152</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.21</v>
+        <v>11.715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44831.5625</v>
+        <v>45181.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.13</v>
+        <v>6.726</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.12</v>
+        <v>4.589</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.997</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.210000000000001</v>
+        <v>14.515</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.2</v>
+        <v>11.55</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.86</v>
+        <v>5.293</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.33</v>
+        <v>23.321</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.07</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.65</v>
+        <v>3.457</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.13</v>
+        <v>4.989</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.65</v>
+        <v>5.824</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.13</v>
+        <v>6.03</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.47</v>
+        <v>1.694</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.38</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.52</v>
+        <v>7.372</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.98</v>
+        <v>4.686</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.11</v>
+        <v>0.969</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.36</v>
+        <v>0.532</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>44.19</v>
+        <v>72.80500000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.57</v>
+        <v>14.85</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.12</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.12</v>
+        <v>9.718999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.55</v>
+        <v>5.014</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.46</v>
+        <v>1.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.72</v>
+        <v>10.892</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.55</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.73</v>
+        <v>3.965</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.23</v>
+        <v>4.633</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.27</v>
+        <v>5.999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.54</v>
+        <v>21.32</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.98</v>
+        <v>2.622</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.7</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44831.56944444445</v>
+        <v>45181.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.78</v>
+        <v>3.84</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.36</v>
+        <v>2.54</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.65</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.19</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.61</v>
+        <v>6.49</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.54</v>
+        <v>3.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.83</v>
+        <v>14.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.73</v>
+        <v>4.65</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.8</v>
+        <v>1.95</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.99</v>
+        <v>2.74</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.08</v>
+        <v>3.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.98</v>
+        <v>3.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.79</v>
+        <v>0.97</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.9</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.3</v>
+        <v>4.19</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.18</v>
+        <v>2.76</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.16</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.58</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.61</v>
+        <v>38.47</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.37</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.06</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.28</v>
+        <v>5.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.96</v>
+        <v>2.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.44</v>
+        <v>0.7</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.95</v>
+        <v>6.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.73</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.050000000000001</v>
+        <v>2.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.48</v>
+        <v>2.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13</v>
+        <v>3.42</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>35.29</v>
+        <v>12.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.89</v>
+        <v>1.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.42</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44831.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.14</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.59</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_500.xlsx
+++ b/DATA_goal/Junction_Flooding_500.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
@@ -465,12 +465,12 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
-    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45181.50694444445</v>
+        <v>44831.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.217</v>
+        <v>7.205</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.901</v>
+        <v>5.605</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.042</v>
+        <v>1.192</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.812</v>
+        <v>15.61</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.818</v>
+        <v>12.374</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.123</v>
+        <v>4.794</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.986</v>
+        <v>14.798</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.269</v>
+        <v>8.957000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>4.429</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>14.67</v>
+        <v>5.631</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.076</v>
+        <v>6.249</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.742</v>
+        <v>7.306</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.827</v>
+        <v>2.788</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.038</v>
+        <v>6.015</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.994</v>
+        <v>7.738</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>12.85</v>
+        <v>5.138</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.46</v>
+        <v>0.492</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.249</v>
+        <v>0.931</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.547</v>
+        <v>84.14</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>41.81</v>
+        <v>16.424</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.881</v>
+        <v>5.552</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.553</v>
+        <v>10.174</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.055</v>
+        <v>6.283</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>3.03</v>
+        <v>0.894</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.312</v>
+        <v>9.741</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.261</v>
+        <v>4.361</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.125</v>
+        <v>4.885</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.047</v>
+        <v>6.06</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.565</v>
+        <v>8.134</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.456</v>
+        <v>1.522</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.557</v>
+        <v>13.18</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.647</v>
+        <v>3.625</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.354</v>
+        <v>6.387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45181.51388888889</v>
+        <v>44831.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.971</v>
+        <v>6.927</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>9.032</v>
+        <v>5.256</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.695</v>
+        <v>0.631</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>27.971</v>
+        <v>15.306</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>22.532</v>
+        <v>12.134</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>10.208</v>
+        <v>4.91</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>40.423</v>
+        <v>20.147</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>15.707</v>
+        <v>8.496</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.724</v>
+        <v>4.251</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.909000000000001</v>
+        <v>5.386</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>11.183</v>
+        <v>6.086</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>11.647</v>
+        <v>6.826</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.262</v>
+        <v>2.336</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>10.151</v>
+        <v>5.639</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>14.263</v>
+        <v>7.591</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.82</v>
+        <v>4.875</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.526</v>
+        <v>0.207</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.963</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>147.193</v>
+        <v>78.503</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>28.454</v>
+        <v>15.776</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>9.369999999999999</v>
+        <v>5.205</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>18.788</v>
+        <v>10.16</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.728</v>
+        <v>5.831</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.908</v>
+        <v>0.769</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>19.494</v>
+        <v>11.31</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>8.276</v>
+        <v>4.299</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>7.538</v>
+        <v>4.438</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.83</v>
+        <v>5.299</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>11.56</v>
+        <v>7.097</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.265</v>
+        <v>0.707</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>36.84</v>
+        <v>18.832</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.152</v>
+        <v>3.244</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>11.715</v>
+        <v>6.206</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45181.52083333334</v>
+        <v>44831.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>6.726</v>
+        <v>4.127</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>4.589</v>
+        <v>3.116</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.997</v>
+        <v>0.39</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>14.515</v>
+        <v>9.214</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>11.55</v>
+        <v>7.195</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>5.293</v>
+        <v>2.855</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>23.321</v>
+        <v>14.335</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>8.144</v>
+        <v>5.065</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>3.457</v>
+        <v>2.649</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>4.989</v>
+        <v>3.128</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>5.824</v>
+        <v>3.654</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>6.03</v>
+        <v>4.131</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.694</v>
+        <v>1.466</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>5.263</v>
+        <v>3.384</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>7.372</v>
+        <v>4.522</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>4.686</v>
+        <v>2.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.969</v>
+        <v>0.111</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.532</v>
+        <v>0.357</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>72.80500000000001</v>
+        <v>44.186</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>14.85</v>
+        <v>9.567</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>4.858</v>
+        <v>3.123</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>9.718999999999999</v>
+        <v>6.124</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>5.014</v>
+        <v>3.546</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.09</v>
+        <v>0.458</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>10.892</v>
+        <v>7.724</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>4.291</v>
+        <v>2.553</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>3.965</v>
+        <v>2.73</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>4.633</v>
+        <v>3.234</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>5.999</v>
+        <v>4.268</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.773</v>
+        <v>0.461</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>21.32</v>
+        <v>13.544</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>2.622</v>
+        <v>1.977</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>6.075</v>
+        <v>3.698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45181.52777777778</v>
+        <v>44831.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>3.84</v>
+        <v>13.781</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>2.54</v>
+        <v>10.355</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.646</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.289999999999999</v>
+        <v>30.189</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>6.49</v>
+        <v>24.61</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.03</v>
+        <v>10.536</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>14.01</v>
+        <v>38.83</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.65</v>
+        <v>16.734</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>1.95</v>
+        <v>7.8</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>2.74</v>
+        <v>10.992</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.34</v>
+        <v>12.081</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.43</v>
+        <v>12.982</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.97</v>
+        <v>3.793</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>3.01</v>
+        <v>10.903</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.19</v>
+        <v>15.297</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.76</v>
+        <v>9.183999999999999</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.71</v>
+        <v>0.162</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.34</v>
+        <v>0.582</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>38.47</v>
+        <v>158.606</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.529999999999999</v>
+        <v>30.372</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.78</v>
+        <v>10.064</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.52</v>
+        <v>20.282</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>2.84</v>
+        <v>10.96</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.7</v>
+        <v>1.437</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>6.45</v>
+        <v>19.953</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.45</v>
+        <v>8.731999999999999</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.31</v>
+        <v>8.047000000000001</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.69</v>
+        <v>9.475</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.42</v>
+        <v>13.002</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.342</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>12.82</v>
+        <v>35.291</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.46</v>
+        <v>5.891</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.47</v>
+        <v>12.424</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44831.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>12.85</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.65</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>28.14</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>22.97</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>39.66</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>15.59</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>7.26</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>11.26</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>12.08</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>10.15</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>8.539999999999999</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>147.19</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>28.41</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>19.01</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>19.85</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>8.15</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>7.47</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>8.789999999999999</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>12.07</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>36.3</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>5.47</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>11.59</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_500.xlsx
+++ b/DATA_goal/Junction_Flooding_500.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,7 +452,7 @@
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
     <col width="7" customWidth="1" min="14" max="14"/>
@@ -465,12 +465,12 @@
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
     <col width="8" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
     <col width="8" customWidth="1" min="32" max="32"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44831.54861111111</v>
+        <v>45181.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>7.205</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.605</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.192</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>15.61</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>12.374</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>4.794</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>14.798</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>8.957000000000001</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>4.429</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>5.631</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>6.249</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>7.306</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>2.788</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>6.015</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>7.738</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>5.138</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.492</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.931</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>84.14</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>16.424</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>5.552</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>10.174</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>6.283</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.894</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>9.741</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>4.361</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>4.885</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>6.06</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>8.134</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>1.522</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>13.18</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.625</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>6.387</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44831.55555555555</v>
+        <v>45181.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>6.927</v>
+        <v>12.971</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>5.256</v>
+        <v>9.032</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.631</v>
+        <v>1.695</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>15.306</v>
+        <v>27.971</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.134</v>
+        <v>22.532</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>4.91</v>
+        <v>10.208</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>20.147</v>
+        <v>40.423</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>8.496</v>
+        <v>15.707</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>4.251</v>
+        <v>6.724</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>5.386</v>
+        <v>9.909000000000001</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>6.086</v>
+        <v>11.183</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.826</v>
+        <v>11.647</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.336</v>
+        <v>3.262</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>5.639</v>
+        <v>10.151</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>7.591</v>
+        <v>14.263</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>4.875</v>
+        <v>8.82</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.207</v>
+        <v>1.526</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.963</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>78.503</v>
+        <v>147.193</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>15.776</v>
+        <v>28.454</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.205</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>10.16</v>
+        <v>18.788</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.831</v>
+        <v>9.728</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.769</v>
+        <v>1.908</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>11.31</v>
+        <v>19.494</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.299</v>
+        <v>8.276</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>4.438</v>
+        <v>7.538</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.299</v>
+        <v>8.83</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>7.097</v>
+        <v>11.56</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.707</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>18.832</v>
+        <v>36.84</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.244</v>
+        <v>5.152</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>6.206</v>
+        <v>11.715</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44831.5625</v>
+        <v>45181.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>4.127</v>
+        <v>6.726</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>3.116</v>
+        <v>4.589</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.39</v>
+        <v>0.997</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>9.214</v>
+        <v>14.515</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>7.195</v>
+        <v>11.55</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>2.855</v>
+        <v>5.293</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>14.335</v>
+        <v>23.321</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>5.065</v>
+        <v>8.144</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>2.649</v>
+        <v>3.457</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.128</v>
+        <v>4.989</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>3.654</v>
+        <v>5.824</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>4.131</v>
+        <v>6.03</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>1.466</v>
+        <v>1.694</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3.384</v>
+        <v>5.263</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>4.522</v>
+        <v>7.372</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>2.98</v>
+        <v>4.686</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.111</v>
+        <v>0.969</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.357</v>
+        <v>0.532</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>44.186</v>
+        <v>72.80500000000001</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>9.567</v>
+        <v>14.85</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>3.123</v>
+        <v>4.858</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>6.124</v>
+        <v>9.718999999999999</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>3.546</v>
+        <v>5.014</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.458</v>
+        <v>1.09</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.724</v>
+        <v>10.892</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>2.553</v>
+        <v>4.291</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>2.73</v>
+        <v>3.965</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>3.234</v>
+        <v>4.633</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>4.268</v>
+        <v>5.999</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.461</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>13.544</v>
+        <v>21.32</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.977</v>
+        <v>2.622</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>3.698</v>
+        <v>6.075</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44831.56944444445</v>
+        <v>45181.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>13.781</v>
+        <v>3.84</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>10.355</v>
+        <v>2.54</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.646</v>
+        <v>0.68</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>30.189</v>
+        <v>8.289999999999999</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>24.61</v>
+        <v>6.49</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>10.536</v>
+        <v>3.03</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>38.83</v>
+        <v>14.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>16.734</v>
+        <v>4.65</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>7.8</v>
+        <v>1.95</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>10.992</v>
+        <v>2.74</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>12.081</v>
+        <v>3.34</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>12.982</v>
+        <v>3.43</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.793</v>
+        <v>0.97</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>10.903</v>
+        <v>3.01</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>15.297</v>
+        <v>4.19</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>9.183999999999999</v>
+        <v>2.76</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.162</v>
+        <v>0.71</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.582</v>
+        <v>0.34</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>158.606</v>
+        <v>38.47</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>30.372</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>10.064</v>
+        <v>2.78</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>20.282</v>
+        <v>5.52</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>10.96</v>
+        <v>2.84</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.437</v>
+        <v>0.7</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>19.953</v>
+        <v>6.45</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>8.731999999999999</v>
+        <v>2.45</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>8.047000000000001</v>
+        <v>2.31</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>9.475</v>
+        <v>2.69</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>13.002</v>
+        <v>3.42</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.342</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>35.291</v>
+        <v>12.82</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>5.891</v>
+        <v>1.46</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>12.424</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44831.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>12.85</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>28.14</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>22.97</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>9.859999999999999</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>39.66</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>15.59</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>7.26</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>11.26</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>12.08</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>8.539999999999999</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>147.19</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>28.41</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>8.15</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>7.47</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>5.47</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>11.59</v>
+        <v>3.47</v>
       </c>
     </row>
   </sheetData>
